--- a/biology/Médecine/Urgences_psychiatriques/Urgences_psychiatriques.xlsx
+++ b/biology/Médecine/Urgences_psychiatriques/Urgences_psychiatriques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La notion d'urgence psychiatrique renvoit à la fois à un contexte pathologique particulier, celui d'un trouble psychiatrique aigu ou décompensé ou d'une crise psychiatrique, et aux services hospitaliers dédiés à leur évaluation et leur prise en charge initiale. Ces derniers sont parfois rattachés à un service d'accueil des urgences générales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notion d'urgence psychiatrique renvoit à la fois à un contexte pathologique particulier, celui d'un trouble psychiatrique aigu ou décompensé ou d'une crise psychiatrique, et aux services hospitaliers dédiés à leur évaluation et leur prise en charge initiale. Ces derniers sont parfois rattachés à un service d'accueil des urgences générales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Situations relevant de l'urgence psychiatrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Différentes situations cliniques sont rencontrées dans le cadre de urgences psychiatriques. Il s'agit généralement de cas ne pouvant pas être pris en charge immédiatement dans un centre médico-psychologique. Il peut s'agir de troubles aigus, tels que l'attaque de panique, l'épisode psychotique bref ou l'état de dissociation péri-traumatique. Les services d'urgences psychiatriques sont également sollicités pour l'évaluation et l'orientation de personnes présentant un trouble psychiatrique chronique actuellement en situation de décompensation, tels que la schizophrénie ou le trouble bipolaire. Enfin, des contextes de crise psychologique, tels que la crise suicidaire, requièrent également une évaluation et une prise en charge en urgence[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différentes situations cliniques sont rencontrées dans le cadre de urgences psychiatriques. Il s'agit généralement de cas ne pouvant pas être pris en charge immédiatement dans un centre médico-psychologique. Il peut s'agir de troubles aigus, tels que l'attaque de panique, l'épisode psychotique bref ou l'état de dissociation péri-traumatique. Les services d'urgences psychiatriques sont également sollicités pour l'évaluation et l'orientation de personnes présentant un trouble psychiatrique chronique actuellement en situation de décompensation, tels que la schizophrénie ou le trouble bipolaire. Enfin, des contextes de crise psychologique, tels que la crise suicidaire, requièrent également une évaluation et une prise en charge en urgence,.
 </t>
         </is>
       </c>
